--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="164">
   <si>
     <t>土地坐落</t>
   </si>
@@ -369,6 +369,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -397,6 +406,9 @@
   </si>
   <si>
     <t>台積電</t>
+  </si>
+  <si>
+    <t>2011-12-20</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2191,13 +2203,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2216,13 +2228,22 @@
       <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2239,13 +2260,22 @@
       <c r="G2" s="2">
         <v>11030</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2262,13 +2292,22 @@
       <c r="G3" s="2">
         <v>23640</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2285,13 +2324,22 @@
       <c r="G4" s="2">
         <v>11340</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2308,13 +2356,22 @@
       <c r="G5" s="2">
         <v>12980</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2331,13 +2388,22 @@
       <c r="G6" s="2">
         <v>28040</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2354,13 +2420,22 @@
       <c r="G7" s="2">
         <v>12550</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2377,13 +2452,22 @@
       <c r="G8" s="2">
         <v>24090</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2400,13 +2484,22 @@
       <c r="G9" s="2">
         <v>21460</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2423,13 +2516,22 @@
       <c r="G10" s="2">
         <v>6090</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2445,6 +2547,15 @@
       </c>
       <c r="G11" s="2">
         <v>41620</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -2462,19 +2573,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>49</v>
@@ -2485,19 +2596,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2508,13 +2619,13 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
@@ -2531,13 +2642,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
@@ -2554,13 +2665,13 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
@@ -2577,13 +2688,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
@@ -2600,13 +2711,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
@@ -2623,19 +2734,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -2646,13 +2757,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
@@ -2669,13 +2780,13 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
@@ -2692,13 +2803,13 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
@@ -2707,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2725,10 +2836,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2740,7 +2851,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2748,14 +2859,14 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2765,22 +2876,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2788,7 +2899,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2798,7 +2909,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2817,13 +2928,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2831,13 +2942,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2845,10 +2956,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2859,10 +2970,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2873,10 +2984,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -2887,10 +2998,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>106</v>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
   <si>
     <t>土地坐落</t>
   </si>
@@ -369,6 +369,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -402,10 +405,13 @@
     <t>金寶</t>
   </si>
   <si>
-    <t>仁寶 '</t>
+    <t>仁寶</t>
   </si>
   <si>
     <t>台積電</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-20</t>
@@ -2203,13 +2209,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2237,13 +2243,16 @@
       <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2261,21 +2270,24 @@
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2">
+        <v>130</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2293,21 +2305,24 @@
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2">
+        <v>130</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2325,21 +2340,24 @@
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2357,21 +2375,24 @@
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2">
+        <v>130</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2389,21 +2410,24 @@
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2">
+        <v>130</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2421,21 +2445,24 @@
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2">
+        <v>130</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2453,21 +2480,24 @@
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2">
+        <v>130</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2485,21 +2515,24 @@
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2517,21 +2550,24 @@
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2549,12 +2585,15 @@
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2">
+        <v>130</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
         <v>1367</v>
       </c>
     </row>
@@ -2573,19 +2612,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>49</v>
@@ -2596,19 +2635,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2619,13 +2658,13 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
@@ -2642,13 +2681,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
@@ -2665,13 +2704,13 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
@@ -2688,13 +2727,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
@@ -2711,13 +2750,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
@@ -2734,19 +2773,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -2757,13 +2796,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
@@ -2780,13 +2819,13 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
@@ -2803,13 +2842,13 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
@@ -2818,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2836,10 +2875,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2851,7 +2890,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2859,14 +2898,14 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2876,22 +2915,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2899,7 +2938,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2909,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2928,13 +2967,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2942,13 +2981,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2956,10 +2995,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2970,10 +3009,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2984,10 +3023,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -2998,10 +3037,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>106</v>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="171">
   <si>
     <t>土地坐落</t>
   </si>
@@ -372,6 +372,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -381,6 +384,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -414,7 +423,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-20</t>
+  </si>
+  <si>
+    <t>tmp85f1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2209,13 +2224,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2246,13 +2261,22 @@
       <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2270,24 +2294,33 @@
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2305,24 +2338,33 @@
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2">
+        <v>134</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2340,24 +2382,33 @@
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2375,24 +2426,33 @@
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2">
+        <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2410,24 +2470,33 @@
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2445,24 +2514,33 @@
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2480,24 +2558,33 @@
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2">
+        <v>134</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2515,24 +2602,33 @@
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2550,24 +2646,33 @@
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="2">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2585,16 +2690,25 @@
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2">
+        <v>134</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2">
         <v>1367</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2612,19 +2726,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>49</v>
@@ -2635,19 +2749,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2658,13 +2772,13 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
@@ -2681,13 +2795,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
@@ -2704,13 +2818,13 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
@@ -2727,13 +2841,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
@@ -2750,13 +2864,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
@@ -2773,19 +2887,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -2796,13 +2910,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
@@ -2819,13 +2933,13 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
@@ -2842,13 +2956,13 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
@@ -2857,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2875,10 +2989,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2890,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2898,14 +3012,14 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2915,22 +3029,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2938,7 +3052,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2948,7 +3062,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2967,13 +3081,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2981,13 +3095,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2995,10 +3109,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -3009,10 +3123,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -3023,10 +3137,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3037,10 +3151,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>106</v>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -22,9 +22,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="171">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="171">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市善化區北子店段07410042地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段07680000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之109</t>
+  </si>
+  <si>
+    <t>劉育菁</t>
+  </si>
+  <si>
+    <t>95年05月24日</t>
+  </si>
+  <si>
+    <t>信託</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-20</t>
+  </si>
+  <si>
+    <t>黃偉哲</t>
+  </si>
+  <si>
+    <t>tmp85f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,58 +123,31 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺南市善化區北子店段 0741-0042 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段0768-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 109</t>
-  </si>
-  <si>
-    <t>劉育菁</t>
-  </si>
-  <si>
-    <t>95年05月 24日</t>
-  </si>
-  <si>
-    <t>信託</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>'面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>臺南市善化區北子店段 00853-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段00591 -000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段00603-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 &gt;119</t>
-  </si>
-  <si>
-    <t>95年05月 23日</t>
+    <t>臺南市善化區北子店段00853000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段00591000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段00603000建號</t>
+  </si>
+  <si>
+    <t>10000分之&gt;119</t>
+  </si>
+  <si>
+    <t>95年05月23日</t>
   </si>
   <si>
     <t>(信託）</t>
   </si>
   <si>
-    <t>(公共設 施）</t>
-  </si>
-  <si>
-    <t>374,100( 二筆 建物合購）</t>
-  </si>
-  <si>
-    <t>374，100( 一筆 建物合購）</t>
+    <t>(公共設施）</t>
+  </si>
+  <si>
+    <t>374100(二筆建物合購）</t>
+  </si>
+  <si>
+    <t>374100(一筆建物合購）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -117,16 +168,13 @@
     <t>曰產</t>
   </si>
   <si>
-    <t>黃偉哲</t>
-  </si>
-  <si>
     <t>.黃偉哲</t>
   </si>
   <si>
-    <t>98年01月 01日</t>
-  </si>
-  <si>
-    <t>96年06月 11曰</t>
+    <t>98年01月01日</t>
+  </si>
+  <si>
+    <t>96年06月11曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -168,7 +216,7 @@
     <t>人</t>
   </si>
   <si>
-    <t>外 幣總額</t>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -183,22 +231,19 @@
     <t>幣別</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
     <t>京城商業銀行佳里分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行建北分 行</t>
+    <t>台新國際商業銀行建北分行</t>
   </si>
   <si>
     <t>華南商業銀行營業部</t>
   </si>
   <si>
-    <t>香港上海匯豐銀行嘉義分 行</t>
+    <t>香港上海匯豐銀行嘉義分行</t>
   </si>
   <si>
     <t>永豐商業銀行南門分行</t>
@@ -207,7 +252,7 @@
     <t>安泰商業銀行嘉義分行</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行台中分 行</t>
+    <t>臺灣中小企業銀行台中分行</t>
   </si>
   <si>
     <t>彰化商業銀行宜蘭分行</t>
@@ -240,37 +285,37 @@
     <t>第一商業銀行佳里分行</t>
   </si>
   <si>
-    <t>台北窜邦商業銀行安平分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀永康分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行民權分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分 行</t>
+    <t>台北窜邦商業銀行安平分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀永康分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行民權分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
   </si>
   <si>
     <t>合作金庫商業銀行營業部</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司立 法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司佳 里郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北榮星郵局</t>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司佳里郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北榮星郵局</t>
   </si>
   <si>
     <t>臺灣銀行新營分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行府城分 行</t>
+    <t>台新國際商業銀行府城分行</t>
   </si>
   <si>
     <t>臺灣土地銀行新市分行</t>
@@ -285,16 +330,16 @@
     <t>京城商業銀行善化分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司新 竹西大郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司鹽 水郵局</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行永康分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行西台南 分行</t>
+    <t>中華郵政股份有限公司新竹西大郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司鹽水郵局</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行永康分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行西台南分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -318,7 +363,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>新臺幣 a</t>
+    <t>新臺幣a</t>
   </si>
   <si>
     <t>新臺幣.</t>
@@ -327,34 +372,19 @@
     <t>美金</t>
   </si>
   <si>
-    <t>新臺幣-</t>
-  </si>
-  <si>
     <t>澳幣</t>
   </si>
   <si>
-    <t>黃偉哲-</t>
-  </si>
-  <si>
-    <t>劉育菁•</t>
-  </si>
-  <si>
     <t>劉肓菁</t>
   </si>
   <si>
     <t>黃〇文</t>
   </si>
   <si>
-    <t>1,200,(300</t>
-  </si>
-  <si>
-    <t>'703</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1200(300</t>
+  </si>
+  <si>
+    <t>703</t>
   </si>
   <si>
     <t>quantity</t>
@@ -369,27 +399,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -423,15 +432,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-20</t>
-  </si>
-  <si>
-    <t>tmp85f1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -477,25 +477,25 @@
     <t>稱</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>黃金存摺(70公克）</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總令</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總令</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額：新臺幣 元）</t>
+    <t>t額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,57 +921,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>2418600</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1483.91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>234532</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -989,25 +1052,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1015,22 +1078,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>156.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
         <v>452400</v>
@@ -1041,25 +1104,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>84.22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1067,25 +1130,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>2774.84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1103,22 +1166,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1126,19 +1189,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
@@ -1149,19 +1212,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
@@ -1182,25 +1245,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1208,25 +1271,25 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1244,22 +1307,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1267,16 +1330,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1288,20 +1351,20 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1309,16 +1372,16 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1330,16 +1393,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1351,16 +1414,16 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1372,16 +1435,16 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1393,16 +1456,16 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1414,16 +1477,16 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1435,16 +1498,16 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1456,16 +1519,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1477,16 +1540,16 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1498,16 +1561,16 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>2178.84</v>
@@ -1521,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1542,16 +1605,16 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>138.61</v>
@@ -1565,16 +1628,16 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>22474.33</v>
@@ -1588,16 +1651,16 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1609,16 +1672,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1630,16 +1693,16 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1651,20 +1714,20 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1672,16 +1735,16 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1693,16 +1756,16 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1714,16 +1777,16 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1735,16 +1798,16 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1756,16 +1819,16 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1777,16 +1840,16 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1798,16 +1861,16 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1819,16 +1882,16 @@
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1840,16 +1903,16 @@
         <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1861,16 +1924,16 @@
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -1882,16 +1945,16 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -1903,16 +1966,16 @@
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -1924,16 +1987,16 @@
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -1945,16 +2008,16 @@
         <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -1966,16 +2029,16 @@
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1987,16 +2050,16 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2008,16 +2071,16 @@
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
@@ -2029,16 +2092,16 @@
         <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
@@ -2050,16 +2113,16 @@
         <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -2071,16 +2134,16 @@
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -2092,16 +2155,16 @@
         <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
@@ -2113,16 +2176,16 @@
         <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2">
@@ -2134,16 +2197,16 @@
         <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -2155,16 +2218,16 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2">
         <v>433.99</v>
@@ -2178,16 +2241,16 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F45" s="2">
         <v>5.6</v>
@@ -2201,16 +2264,16 @@
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2232,43 +2295,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2276,10 +2339,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>1103</v>
@@ -2288,28 +2351,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2">
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1367</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
         <v>97</v>
@@ -2320,10 +2383,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>2364</v>
@@ -2332,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2">
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1367</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
         <v>98</v>
@@ -2364,10 +2427,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>1134</v>
@@ -2376,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2">
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1367</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
         <v>99</v>
@@ -2408,10 +2471,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>1298</v>
@@ -2420,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2">
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1367</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
         <v>100</v>
@@ -2452,10 +2515,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>2804</v>
@@ -2464,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2">
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1367</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
         <v>101</v>
@@ -2496,10 +2559,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>1255</v>
@@ -2508,28 +2571,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2">
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1367</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
         <v>102</v>
@@ -2540,10 +2603,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>2409</v>
@@ -2552,28 +2615,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G8" s="2">
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1367</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
         <v>103</v>
@@ -2584,10 +2647,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>2146</v>
@@ -2596,28 +2659,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G9" s="2">
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1367</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
         <v>104</v>
@@ -2628,10 +2691,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>609</v>
@@ -2640,28 +2703,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2">
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1367</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
         <v>105</v>
@@ -2672,10 +2735,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>4162</v>
@@ -2684,28 +2747,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2">
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1367</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
         <v>106</v>
@@ -2729,7 +2792,7 @@
         <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>137</v>
@@ -2741,7 +2804,7 @@
         <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2752,7 +2815,7 @@
         <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>146</v>
@@ -2775,7 +2838,7 @@
         <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>146</v>
@@ -2784,7 +2847,7 @@
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2798,7 +2861,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>146</v>
@@ -2807,7 +2870,7 @@
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2821,7 +2884,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>146</v>
@@ -2830,7 +2893,7 @@
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -2844,7 +2907,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>146</v>
@@ -2853,7 +2916,7 @@
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>71541</v>
@@ -2867,7 +2930,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>146</v>
@@ -2876,7 +2939,7 @@
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>100140</v>
@@ -2890,7 +2953,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>146</v>
@@ -2913,7 +2976,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>146</v>
@@ -2922,7 +2985,7 @@
         <v>53.711</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2">
         <v>93692</v>
@@ -2936,7 +2999,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>146</v>
@@ -2945,7 +3008,7 @@
         <v>194.01</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2">
         <v>44142</v>
@@ -2959,7 +3022,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>146</v>
@@ -2968,7 +3031,7 @@
         <v>100.47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>148</v>
@@ -2995,13 +3058,13 @@
         <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>138</v>
@@ -3038,7 +3101,7 @@
         <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>158</v>
@@ -3059,7 +3122,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>159</v>
@@ -3115,7 +3178,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3129,7 +3192,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3143,7 +3206,7 @@
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3157,7 +3220,7 @@
         <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -135,22 +135,25 @@
     <t>374100(一筆建物合購）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>福特六和</t>
   </si>
   <si>
+    <t>曰產</t>
+  </si>
+  <si>
+    <t>.黃偉哲</t>
+  </si>
+  <si>
     <t>98年01月01日</t>
   </si>
   <si>
+    <t>96年06月11曰</t>
+  </si>
+  <si>
     <t>買賣</t>
-  </si>
-  <si>
-    <t>曰產</t>
-  </si>
-  <si>
-    <t>.黃偉哲</t>
-  </si>
-  <si>
-    <t>96年06月11曰</t>
   </si>
   <si>
     <t>幣</t>
@@ -1200,38 +1203,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1">
-        <v>1999</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1240,36 +1264,78 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1287,25 +1353,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1313,25 +1379,25 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1349,13 +1415,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1370,13 +1436,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1391,20 +1457,20 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1412,13 +1478,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1433,13 +1499,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1454,13 +1520,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1475,13 +1541,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1496,13 +1562,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1517,13 +1583,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1538,13 +1604,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1559,13 +1625,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1580,13 +1646,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1601,13 +1667,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1624,13 +1690,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1645,13 +1711,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1668,13 +1734,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1691,13 +1757,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1712,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1733,13 +1799,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -1754,20 +1820,20 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1775,13 +1841,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
@@ -1796,13 +1862,13 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
@@ -1817,13 +1883,13 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
@@ -1838,13 +1904,13 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1859,13 +1925,13 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
@@ -1880,13 +1946,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
@@ -1901,13 +1967,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
@@ -1922,13 +1988,13 @@
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
@@ -1943,13 +2009,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>26</v>
@@ -1964,13 +2030,13 @@
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -1985,13 +2051,13 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2006,13 +2072,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2027,16 +2093,16 @@
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -2048,13 +2114,13 @@
         <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -2069,13 +2135,13 @@
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2090,13 +2156,13 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -2111,13 +2177,13 @@
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -2132,13 +2198,13 @@
         <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -2153,13 +2219,13 @@
         <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -2174,13 +2240,13 @@
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -2195,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -2216,13 +2282,13 @@
         <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -2237,13 +2303,13 @@
         <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -2258,13 +2324,13 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -2281,13 +2347,13 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -2304,16 +2370,16 @@
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2341,13 +2407,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2379,7 +2445,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2391,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2423,7 +2489,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2435,13 +2501,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2467,7 +2533,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2479,13 +2545,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2511,7 +2577,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2523,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2555,7 +2621,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2567,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2599,7 +2665,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2611,13 +2677,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2643,7 +2709,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2655,13 +2721,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2687,7 +2753,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2699,13 +2765,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2731,7 +2797,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2743,13 +2809,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2775,7 +2841,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2787,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2829,19 +2895,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2852,19 +2918,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2875,19 +2941,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2898,19 +2964,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2921,19 +2987,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -2944,19 +3010,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
         <v>71541</v>
@@ -2967,19 +3033,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
         <v>100140</v>
@@ -2990,19 +3056,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -3013,19 +3079,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2">
         <v>93692</v>
@@ -3036,19 +3102,19 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2">
         <v>44142</v>
@@ -3059,22 +3125,22 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3092,14 +3158,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3109,16 +3175,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3126,22 +3192,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3149,14 +3215,14 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -3178,13 +3244,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3192,13 +3258,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3206,10 +3272,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3220,10 +3286,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3234,10 +3300,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3248,13 +3314,13 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -10,19 +10,18 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -135,6 +134,9 @@
     <t>374100(一筆建物合購）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -156,25 +158,7 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1063,7 +1047,7 @@
         <v>452400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -1116,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
@@ -1169,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>24</v>
@@ -1214,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1255,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1264,16 +1248,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1299,25 +1283,25 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -1344,68 +1328,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -1415,13 +1337,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1436,13 +1358,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1457,20 +1379,20 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1478,13 +1400,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1499,13 +1421,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1520,13 +1442,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1541,13 +1463,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1562,13 +1484,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1583,13 +1505,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1604,13 +1526,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1625,13 +1547,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1646,13 +1568,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1667,13 +1589,13 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1690,13 +1612,13 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1711,13 +1633,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1734,13 +1656,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1757,13 +1679,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1778,13 +1700,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1799,13 +1721,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -1820,20 +1742,20 @@
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1841,13 +1763,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
@@ -1862,13 +1784,13 @@
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
@@ -1883,13 +1805,13 @@
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
@@ -1904,13 +1826,13 @@
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1925,13 +1847,13 @@
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
@@ -1946,13 +1868,13 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
@@ -1967,13 +1889,13 @@
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
@@ -1988,13 +1910,13 @@
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
@@ -2009,13 +1931,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>26</v>
@@ -2030,13 +1952,13 @@
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -2051,13 +1973,13 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2072,13 +1994,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2093,16 +2015,16 @@
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -2114,13 +2036,13 @@
         <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -2135,13 +2057,13 @@
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2156,13 +2078,13 @@
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -2177,13 +2099,13 @@
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -2198,13 +2120,13 @@
         <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -2219,13 +2141,13 @@
         <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -2240,13 +2162,13 @@
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -2261,13 +2183,13 @@
         <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -2282,13 +2204,13 @@
         <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -2303,13 +2225,13 @@
         <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -2324,13 +2246,13 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -2347,13 +2269,13 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -2370,16 +2292,16 @@
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2391,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2407,13 +2329,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2445,7 +2367,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2457,13 +2379,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2489,7 +2411,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2501,13 +2423,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2533,7 +2455,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2545,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2577,7 +2499,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2589,13 +2511,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2621,7 +2543,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2633,13 +2555,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2665,7 +2587,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2677,13 +2599,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2709,7 +2631,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2721,13 +2643,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2753,7 +2675,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2765,13 +2687,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2797,7 +2719,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2809,13 +2731,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2841,7 +2763,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2853,13 +2775,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2885,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2895,19 +2817,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2918,19 +2840,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2941,19 +2863,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2964,19 +2886,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2987,19 +2909,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -3010,19 +2932,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
         <v>71541</v>
@@ -3033,19 +2955,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2">
         <v>100140</v>
@@ -3056,19 +2978,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -3079,19 +3001,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2">
         <v>93692</v>
@@ -3102,19 +3024,19 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2">
         <v>44142</v>
@@ -3125,22 +3047,22 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3158,14 +3080,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3175,16 +3097,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3192,22 +3114,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3215,14 +3137,14 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -3234,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3244,13 +3166,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3258,13 +3180,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3272,10 +3194,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3286,10 +3208,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3300,10 +3222,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3314,13 +3236,13 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -161,138 +161,147 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>京城商業銀行佳里分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行建北分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行營業部</t>
+  </si>
+  <si>
+    <t>香港上海匯豐銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行台中分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行宜蘭分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行東嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行新生分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行新營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行佳里分行</t>
+  </si>
+  <si>
+    <t>台北窜邦商業銀行安平分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀永康分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行民權分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司佳里郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北榮星郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行新營分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行府城分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行新市分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>京城商業銀行善化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新竹西大郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司鹽水郵局</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行永康分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行西台南分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>洚期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄荐款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>京城商業銀行佳里分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行建北分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行營業部</t>
-  </si>
-  <si>
-    <t>香港上海匯豐銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南門分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行台中分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行宜蘭分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行新生分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行佳里分行</t>
-  </si>
-  <si>
-    <t>台北窜邦商業銀行安平分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀永康分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行民權分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司立法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司佳里郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北榮星郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行新營分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行府城分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新市分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>京城商業銀行善化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新竹西大郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司鹽水郵局</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行永康分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行西台南分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>洚期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄荐款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>新臺幣a</t>
   </si>
   <si>
@@ -311,19 +320,13 @@
     <t>黃〇文</t>
   </si>
   <si>
-    <t>1200(300</t>
-  </si>
-  <si>
-    <t>703</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>鴻海</t>
@@ -1329,13 +1332,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1346,966 +1349,1876 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1428377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1428377</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1200300</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1265</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1112</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>3233</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>811</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>2198</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2">
-        <v>2178.84</v>
-      </c>
-      <c r="G13" s="2">
         <v>70702.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>21393</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2">
-        <v>138.61</v>
-      </c>
-      <c r="G15" s="2">
         <v>4468.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="2">
-        <v>22474.33</v>
-      </c>
-      <c r="G16" s="2">
         <v>725772.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>41954</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>701</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>78653</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>703</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>496</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="2">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>475</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>3665</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>116968</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>22595</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>18967</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>234376</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
+      <c r="F31" s="2">
         <v>457</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>21411</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2">
         <v>105451</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>1564</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>819</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="2">
         <v>1628</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>102523</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="2">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>102523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>784650</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="2">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>784650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>96063</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="2">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
-        <v>96063</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>7635</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="2">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>7635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
+      <c r="F43" s="2">
         <v>260379</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <v>433.99</v>
-      </c>
-      <c r="G44" s="2">
         <v>14858.36</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="G45" s="2">
         <v>165.98</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
+        <v>98</v>
+      </c>
+      <c r="F46" s="2">
         <v>26970</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="2">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2329,13 +3242,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2367,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2379,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <v>11030</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2411,7 +3324,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2423,13 +3336,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
         <v>23640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2455,7 +3368,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2467,13 +3380,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2">
         <v>11340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2499,7 +3412,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2511,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2">
         <v>12980</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2543,7 +3456,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2555,13 +3468,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
         <v>28040</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2587,7 +3500,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2599,13 +3512,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2">
         <v>12550</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2631,7 +3544,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2643,13 +3556,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2">
         <v>24090</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2675,7 +3588,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2687,13 +3600,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2">
         <v>21460</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2719,7 +3632,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2731,13 +3644,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2">
         <v>6090</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2763,7 +3676,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2775,13 +3688,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2">
         <v>41620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2817,19 +3730,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2840,19 +3753,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2863,19 +3776,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2886,19 +3799,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2909,19 +3822,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -2932,19 +3845,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>71541</v>
@@ -2955,19 +3868,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2">
         <v>100140</v>
@@ -2978,19 +3891,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2">
         <v>42878</v>
@@ -3001,19 +3914,19 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
         <v>93692</v>
@@ -3024,19 +3937,19 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2">
         <v>44142</v>
@@ -3047,22 +3960,22 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3080,14 +3993,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3097,16 +4010,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3114,22 +4027,22 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3137,14 +4050,14 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -3166,13 +4079,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3180,13 +4093,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3194,10 +4107,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3208,10 +4121,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3222,10 +4135,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3236,13 +4149,13 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -13,7 +13,7 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="具有相當價值之財產" sheetId="7" r:id="rId7"/>
     <sheet name="保險" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -362,64 +362,43 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>新興歐歐元</t>
   </si>
   <si>
+    <t>新能源美元</t>
+  </si>
+  <si>
+    <t>世界金融美</t>
+  </si>
+  <si>
+    <t>坦全拉丁美</t>
+  </si>
+  <si>
+    <t>新歐歐元</t>
+  </si>
+  <si>
+    <t>策略收益</t>
+  </si>
+  <si>
     <t>大眾商業銀行</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>新能源美元</t>
-  </si>
-  <si>
-    <t>世界金融美</t>
-  </si>
-  <si>
-    <t>坦全拉丁美</t>
-  </si>
-  <si>
-    <t>新歐歐元</t>
-  </si>
-  <si>
-    <t>策略收益</t>
-  </si>
-  <si>
-    <t>47„976</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總令</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>fund</t>
   </si>
   <si>
     <t>黃金存摺(70公克）</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
     <t>無法估價</t>
   </si>
   <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -3722,260 +3701,524 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.86</v>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2">
         <v>3446</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>2412</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3233</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>53730</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>71541</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>100140</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2">
         <v>42878</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>93692</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>44142</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>121</v>
+      <c r="H11" s="2">
+        <v>47976</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3985,83 +4228,83 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
         <v>135</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4079,13 +4322,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4093,13 +4336,13 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4107,10 +4350,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -4121,10 +4364,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -4135,10 +4378,10 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -4149,10 +4392,10 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>98</v>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -398,28 +398,34 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>祥安終身壽險</t>
   </si>
   <si>
+    <t>美滿人生202終身</t>
+  </si>
+  <si>
+    <t>住院醫療健康保險</t>
+  </si>
+  <si>
+    <t>美意年年終身年金型保單</t>
+  </si>
+  <si>
     <t>黃停哲</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>美滿人生202終身</t>
-  </si>
-  <si>
-    <t>住院醫療健康保險</t>
-  </si>
-  <si>
-    <t>美意年年終身年金型保單</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4314,43 +4320,85 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>130</v>
@@ -4358,13 +4406,34 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>131</v>
@@ -4372,13 +4441,34 @@
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>132</v>
@@ -4386,19 +4476,61 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2011-12-20_財產申報表_tmp85f1.xlsx
@@ -12,16 +12,17 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="具有相當價值之財產" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="債券" sheetId="6" r:id="rId6"/>
+    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
+    <sheet name="具有相當價值之財產" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -362,9 +363,30 @@
     <t>stock</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
     <t>dealer</t>
   </si>
   <si>
+    <t>三年期澳幣定息</t>
+  </si>
+  <si>
+    <t>四年期美元定息</t>
+  </si>
+  <si>
+    <t>20FP000024</t>
+  </si>
+  <si>
+    <t>20FP000023</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>bonds</t>
+  </si>
+  <si>
     <t>新興歐歐元</t>
   </si>
   <si>
@@ -381,9 +403,6 @@
   </si>
   <si>
     <t>策略收益</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
   </si>
   <si>
     <t>歐元</t>
@@ -3707,6 +3726,166 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2">
+        <v>282239</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="2">
+        <v>241915</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3721,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>100</v>
@@ -3762,13 +3941,13 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
@@ -3777,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2">
         <v>3446</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -3809,13 +3988,13 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
@@ -3830,7 +4009,7 @@
         <v>2412</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
@@ -3856,13 +4035,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
@@ -3877,7 +4056,7 @@
         <v>3233</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>24</v>
@@ -3903,13 +4082,13 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
@@ -3924,7 +4103,7 @@
         <v>53730</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>24</v>
@@ -3950,13 +4129,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
@@ -3971,7 +4150,7 @@
         <v>71541</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>24</v>
@@ -3997,13 +4176,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
@@ -4018,7 +4197,7 @@
         <v>100140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>24</v>
@@ -4044,13 +4223,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
@@ -4059,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>42878</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>24</v>
@@ -4091,13 +4270,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2">
         <v>53.711</v>
@@ -4112,7 +4291,7 @@
         <v>93692</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>24</v>
@@ -4138,13 +4317,13 @@
         <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2">
         <v>194.01</v>
@@ -4159,7 +4338,7 @@
         <v>44142</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>24</v>
@@ -4185,13 +4364,13 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2">
         <v>100.47</v>
@@ -4206,7 +4385,7 @@
         <v>47976</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>24</v>
@@ -4232,7 +4411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -4280,7 +4459,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4289,10 +4468,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -4318,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -4328,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4363,16 +4542,16 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -4398,16 +4577,16 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -4433,16 +4612,16 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -4468,16 +4647,16 @@
         <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
@@ -4503,16 +4682,16 @@
         <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>24</v>
